--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.8530562269731</v>
+        <v>330.920088099392</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.2789036712772</v>
+        <v>452.779463701519</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.0852679524892</v>
+        <v>409.5668271658138</v>
       </c>
       <c r="AD2" t="n">
-        <v>261853.0562269731</v>
+        <v>330920.0880993921</v>
       </c>
       <c r="AE2" t="n">
-        <v>358278.9036712772</v>
+        <v>452779.463701519</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.787702786913696e-06</v>
+        <v>2.57726749109309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>324085.2679524892</v>
+        <v>409566.8271658138</v>
       </c>
     </row>
     <row r="3">
@@ -2283,28 +2283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.2699450220818</v>
+        <v>253.7035195904655</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.4404652472974</v>
+        <v>347.1283481128616</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.2026383886966</v>
+        <v>313.9989057667701</v>
       </c>
       <c r="AD3" t="n">
-        <v>193269.9450220818</v>
+        <v>253703.5195904655</v>
       </c>
       <c r="AE3" t="n">
-        <v>264440.4652472974</v>
+        <v>347128.3481128616</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.238520680167964e-06</v>
+        <v>3.227195605090817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>239202.6383886967</v>
+        <v>313998.9057667701</v>
       </c>
     </row>
     <row r="4">
@@ -2389,28 +2389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.2558443855126</v>
+        <v>234.6040780993247</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.4245339134389</v>
+        <v>320.9956496568054</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.6696310277443</v>
+        <v>290.3602753738791</v>
       </c>
       <c r="AD4" t="n">
-        <v>174255.8443855126</v>
+        <v>234604.0780993247</v>
       </c>
       <c r="AE4" t="n">
-        <v>238424.5339134389</v>
+        <v>320995.6496568054</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.408400178309445e-06</v>
+        <v>3.472104832266724e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>215669.6310277443</v>
+        <v>290360.2753738791</v>
       </c>
     </row>
     <row r="5">
@@ -2495,28 +2495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.0843205297009</v>
+        <v>219.7992759565806</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.9803827055048</v>
+        <v>300.7390662233391</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.0313777596521</v>
+        <v>272.0369518330028</v>
       </c>
       <c r="AD5" t="n">
-        <v>168084.3205297009</v>
+        <v>219799.2759565806</v>
       </c>
       <c r="AE5" t="n">
-        <v>229980.3827055048</v>
+        <v>300739.0662233391</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.494040172632212e-06</v>
+        <v>3.595568964515749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>208031.3777596521</v>
+        <v>272036.9518330029</v>
       </c>
     </row>
     <row r="6">
@@ -2601,28 +2601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.2523371440492</v>
+        <v>218.9672925709289</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.8420263327402</v>
+        <v>299.6007098505746</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.0016645214106</v>
+        <v>271.0072385947614</v>
       </c>
       <c r="AD6" t="n">
-        <v>167252.3371440492</v>
+        <v>218967.2925709289</v>
       </c>
       <c r="AE6" t="n">
-        <v>228842.0263327402</v>
+        <v>299600.7098505746</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505874317391449e-06</v>
+        <v>3.612629829887854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>207001.6645214106</v>
+        <v>271007.2385947614</v>
       </c>
     </row>
   </sheetData>
@@ -2898,28 +2898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.600058957681</v>
+        <v>274.5221133512559</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.9935122690683</v>
+        <v>375.6132665480746</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.8397454841902</v>
+        <v>339.7652635652562</v>
       </c>
       <c r="AD2" t="n">
-        <v>215600.058957681</v>
+        <v>274522.1133512559</v>
       </c>
       <c r="AE2" t="n">
-        <v>294993.5122690683</v>
+        <v>375613.2665480747</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.071863186221179e-06</v>
+        <v>3.033129763304263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>266839.7454841902</v>
+        <v>339765.2635652562</v>
       </c>
     </row>
     <row r="3">
@@ -3004,28 +3004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.1020130958181</v>
+        <v>225.9386371262668</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.6363463381215</v>
+        <v>309.1392110251988</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.8156143368045</v>
+        <v>279.635398604653</v>
       </c>
       <c r="AD3" t="n">
-        <v>167102.0130958181</v>
+        <v>225938.6371262668</v>
       </c>
       <c r="AE3" t="n">
-        <v>228636.3463381215</v>
+        <v>309139.2110251988</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477837683330133e-06</v>
+        <v>3.627461154736301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>206815.6143368045</v>
+        <v>279635.398604653</v>
       </c>
     </row>
     <row r="4">
@@ -3110,28 +3110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.9577145184222</v>
+        <v>208.7089976942994</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.1787606714678</v>
+        <v>285.5648582363476</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.5967877232405</v>
+        <v>258.3109489591502</v>
       </c>
       <c r="AD4" t="n">
-        <v>149957.7145184222</v>
+        <v>208708.9976942994</v>
       </c>
       <c r="AE4" t="n">
-        <v>205178.7606714678</v>
+        <v>285564.8582363476</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632568223832969e-06</v>
+        <v>3.853980845231543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.94010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>185596.7877232405</v>
+        <v>258310.9489591502</v>
       </c>
     </row>
     <row r="5">
@@ -3216,28 +3216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.1593366965215</v>
+        <v>208.9106198723987</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.4546290304858</v>
+        <v>285.8407265953655</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.8463275932576</v>
+        <v>258.5604888291674</v>
       </c>
       <c r="AD5" t="n">
-        <v>150159.3366965215</v>
+        <v>208910.6198723987</v>
       </c>
       <c r="AE5" t="n">
-        <v>205454.6290304858</v>
+        <v>285840.7265953655</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.630491627939829e-06</v>
+        <v>3.850940786963349e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>185846.3275932576</v>
+        <v>258560.4888291673</v>
       </c>
     </row>
   </sheetData>
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.6600250255192</v>
+        <v>184.1785060849371</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.3525193715161</v>
+        <v>252.0011574075236</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.376419277173</v>
+        <v>227.9505206304686</v>
       </c>
       <c r="AD2" t="n">
-        <v>137660.0250255193</v>
+        <v>184178.5060849371</v>
       </c>
       <c r="AE2" t="n">
-        <v>188352.5193715161</v>
+        <v>252001.1574075235</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.913555584384608e-06</v>
+        <v>4.507630117702005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>170376.419277173</v>
+        <v>227950.5206304686</v>
       </c>
     </row>
     <row r="3">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.8847429564051</v>
+        <v>184.403224015823</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.6599883584094</v>
+        <v>252.3086263944168</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.6545438554927</v>
+        <v>228.2286452087883</v>
       </c>
       <c r="AD3" t="n">
-        <v>137884.7429564051</v>
+        <v>184403.224015823</v>
       </c>
       <c r="AE3" t="n">
-        <v>188659.9883584094</v>
+        <v>252308.6263944168</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.916438585545475e-06</v>
+        <v>4.512090476355103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>170654.5438554927</v>
+        <v>228228.6452087883</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.6756445431385</v>
+        <v>209.7405622707782</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.2657965547785</v>
+        <v>286.9762903993023</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.1983240415494</v>
+        <v>259.5876760174306</v>
       </c>
       <c r="AD2" t="n">
-        <v>153675.6445431385</v>
+        <v>209740.5622707782</v>
       </c>
       <c r="AE2" t="n">
-        <v>210265.7965547785</v>
+        <v>286976.2903993023</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613134980243896e-06</v>
+        <v>3.949215134360687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>190198.3240415494</v>
+        <v>259587.6760174306</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.2861399739189</v>
+        <v>193.265716846987</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.8409533492725</v>
+        <v>264.4346800715987</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.9136763981046</v>
+        <v>239.197405342047</v>
       </c>
       <c r="AD3" t="n">
-        <v>137286.1399739189</v>
+        <v>193265.716846987</v>
       </c>
       <c r="AE3" t="n">
-        <v>187840.9533492725</v>
+        <v>264434.6800715987</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.818804944904185e-06</v>
+        <v>4.260042911440932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>169913.6763981046</v>
+        <v>239197.405342047</v>
       </c>
     </row>
   </sheetData>
@@ -4319,28 +4319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.0881513963884</v>
+        <v>177.3557698732142</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.7288360584273</v>
+        <v>242.6659887247706</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.4803295995762</v>
+        <v>219.506287344803</v>
       </c>
       <c r="AD2" t="n">
-        <v>132088.1513963884</v>
+        <v>177355.7698732142</v>
       </c>
       <c r="AE2" t="n">
-        <v>180728.8360584273</v>
+        <v>242665.9887247705</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.944428578758922e-06</v>
+        <v>4.653634007149805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>163480.3295995762</v>
+        <v>219506.287344803</v>
       </c>
     </row>
   </sheetData>
@@ -4616,28 +4616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.0752935878952</v>
+        <v>289.8687548074205</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.8532139573135</v>
+        <v>396.6112184344366</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.8538896779815</v>
+        <v>358.7592003943944</v>
       </c>
       <c r="AD2" t="n">
-        <v>222075.2935878952</v>
+        <v>289868.7548074205</v>
       </c>
       <c r="AE2" t="n">
-        <v>303853.2139573134</v>
+        <v>396611.2184344367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.999673507688995e-06</v>
+        <v>2.915296589153316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>274853.8896779815</v>
+        <v>358759.2003943944</v>
       </c>
     </row>
     <row r="3">
@@ -4722,28 +4722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.3456436260578</v>
+        <v>230.5795813385676</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.4426688453585</v>
+        <v>315.4891556404741</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.0677895731775</v>
+        <v>285.3793134180518</v>
       </c>
       <c r="AD3" t="n">
-        <v>171345.6436260577</v>
+        <v>230579.5813385676</v>
       </c>
       <c r="AE3" t="n">
-        <v>234442.6688453585</v>
+        <v>315489.1556404741</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.416861420488014e-06</v>
+        <v>3.523509127121352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>212067.7895731775</v>
+        <v>285379.3134180518</v>
       </c>
     </row>
     <row r="4">
@@ -4828,28 +4828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.2922516670604</v>
+        <v>213.0520962356811</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.0554185596</v>
+        <v>291.5072772646478</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.8627610690729</v>
+        <v>263.6862318556289</v>
       </c>
       <c r="AD4" t="n">
-        <v>162292.2516670604</v>
+        <v>213052.0962356811</v>
       </c>
       <c r="AE4" t="n">
-        <v>222055.4185596</v>
+        <v>291507.2772646478</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.570082379857758e-06</v>
+        <v>3.746887862959905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>200862.7610690729</v>
+        <v>263686.231855629</v>
       </c>
     </row>
     <row r="5">
@@ -4934,28 +4934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.9582292512061</v>
+        <v>211.7180738198268</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.2301502373137</v>
+        <v>289.6820089423615</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.2116937936849</v>
+        <v>262.0351645802409</v>
       </c>
       <c r="AD5" t="n">
-        <v>160958.2292512061</v>
+        <v>211718.0738198268</v>
       </c>
       <c r="AE5" t="n">
-        <v>220230.1502373137</v>
+        <v>289682.0089423615</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593844430873555e-06</v>
+        <v>3.78153023133218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>199211.6937936849</v>
+        <v>262035.1645802409</v>
       </c>
     </row>
   </sheetData>
@@ -5231,28 +5231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8504330842419</v>
+        <v>180.8126260969762</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.2988470256998</v>
+        <v>247.3958119158526</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.4731325026021</v>
+        <v>223.7847028488783</v>
       </c>
       <c r="AD2" t="n">
-        <v>128850.4330842419</v>
+        <v>180812.6260969762</v>
       </c>
       <c r="AE2" t="n">
-        <v>176298.8470256998</v>
+        <v>247395.8119158527</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.940391310790717e-06</v>
+        <v>4.711197570977962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159473.1325026021</v>
+        <v>223784.7028488783</v>
       </c>
     </row>
   </sheetData>
@@ -5528,28 +5528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.4176674561788</v>
+        <v>245.9649058639678</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.8013650142541</v>
+        <v>336.5400354087301</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.1971645638571</v>
+        <v>304.4211267663275</v>
       </c>
       <c r="AD2" t="n">
-        <v>188417.6674561788</v>
+        <v>245964.9058639678</v>
       </c>
       <c r="AE2" t="n">
-        <v>257801.3650142541</v>
+        <v>336540.0354087302</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.311148039463741e-06</v>
+        <v>3.431692443956854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>233197.1645638571</v>
+        <v>304421.1267663275</v>
       </c>
     </row>
     <row r="3">
@@ -5634,28 +5634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.7259973647302</v>
+        <v>203.0400229505464</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.3346915066899</v>
+        <v>277.8083168944338</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.2606437559451</v>
+        <v>251.2946810365322</v>
       </c>
       <c r="AD3" t="n">
-        <v>153725.9973647302</v>
+        <v>203040.0229505464</v>
       </c>
       <c r="AE3" t="n">
-        <v>210334.6915066899</v>
+        <v>277808.3168944338</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.696364257714474e-06</v>
+        <v>4.003678125050396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>190260.6437559451</v>
+        <v>251294.6810365322</v>
       </c>
     </row>
     <row r="4">
@@ -5740,28 +5740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.6940431759365</v>
+        <v>193.0933201077733</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.6085292070061</v>
+        <v>264.1987992473993</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.844487121349</v>
+        <v>238.9840366526482</v>
       </c>
       <c r="AD4" t="n">
-        <v>143694.0431759365</v>
+        <v>193093.3201077733</v>
       </c>
       <c r="AE4" t="n">
-        <v>196608.5292070061</v>
+        <v>264198.7992473993</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.73345786281728e-06</v>
+        <v>4.058756312244305e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>177844.487121349</v>
+        <v>238984.0366526482</v>
       </c>
     </row>
   </sheetData>
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.6038143342974</v>
+        <v>267.3865224529018</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.474988787745</v>
+        <v>365.8500362808937</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.2794810859892</v>
+        <v>330.9338222919953</v>
       </c>
       <c r="AD2" t="n">
-        <v>200603.8143342974</v>
+        <v>267386.5224529018</v>
       </c>
       <c r="AE2" t="n">
-        <v>274474.988787745</v>
+        <v>365850.0362808937</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.14921576842865e-06</v>
+        <v>3.160298162739417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>248279.4810859892</v>
+        <v>330933.8222919953</v>
       </c>
     </row>
     <row r="3">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.5712562099832</v>
+        <v>212.6370415938422</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.4371648840386</v>
+        <v>290.9393811927656</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.2080740600915</v>
+        <v>263.1725349877998</v>
       </c>
       <c r="AD3" t="n">
-        <v>162571.2562099832</v>
+        <v>212637.0415938422</v>
       </c>
       <c r="AE3" t="n">
-        <v>222437.1648840386</v>
+        <v>290939.3811927656</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550149203373806e-06</v>
+        <v>3.749847716791113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>201208.0740600915</v>
+        <v>263172.5349877998</v>
       </c>
     </row>
     <row r="4">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.8681864286125</v>
+        <v>206.2070475709954</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.3197761555182</v>
+        <v>282.1415796993954</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.0106606768823</v>
+        <v>255.2143833211621</v>
       </c>
       <c r="AD4" t="n">
-        <v>147868.1864286125</v>
+        <v>206207.0475709954</v>
       </c>
       <c r="AE4" t="n">
-        <v>202319.7761555183</v>
+        <v>282141.5796993954</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.661107921507948e-06</v>
+        <v>3.913006129366703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>183010.6606768823</v>
+        <v>255214.3833211621</v>
       </c>
     </row>
     <row r="5">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.1609219607476</v>
+        <v>206.4997831031305</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.7203098251654</v>
+        <v>282.5421133690426</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.3729679752511</v>
+        <v>255.5766906195309</v>
       </c>
       <c r="AD5" t="n">
-        <v>148160.9219607476</v>
+        <v>206499.7831031305</v>
       </c>
       <c r="AE5" t="n">
-        <v>202720.3098251654</v>
+        <v>282542.1133690426</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.659986633934535e-06</v>
+        <v>3.911357340487424e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>183372.9679752511</v>
+        <v>255576.6906195309</v>
       </c>
     </row>
   </sheetData>
@@ -6652,28 +6652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.668151876387</v>
+        <v>313.2388621970028</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.7657593941747</v>
+        <v>428.5872303812357</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.8161851643885</v>
+        <v>387.6834666396056</v>
       </c>
       <c r="AD2" t="n">
-        <v>244668.151876387</v>
+        <v>313238.8621970029</v>
       </c>
       <c r="AE2" t="n">
-        <v>334765.7593941747</v>
+        <v>428587.2303812357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.862578607853584e-06</v>
+        <v>2.694727521345761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.4453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>302816.1851643885</v>
+        <v>387683.4666396056</v>
       </c>
     </row>
     <row r="3">
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.1271460988998</v>
+        <v>249.030520356611</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.7721049932132</v>
+        <v>340.7345444029289</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.0752584816668</v>
+        <v>308.2153177091514</v>
       </c>
       <c r="AD3" t="n">
-        <v>189127.1460988998</v>
+        <v>249030.5203566111</v>
       </c>
       <c r="AE3" t="n">
-        <v>258772.1049932132</v>
+        <v>340734.5444029288</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290695938313185e-06</v>
+        <v>3.314115904681715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>234075.2584816668</v>
+        <v>308215.3177091514</v>
       </c>
     </row>
     <row r="4">
@@ -6864,28 +6864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.389611529839</v>
+        <v>221.7963314337929</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.1345835541534</v>
+        <v>303.4715256311292</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.8845461062554</v>
+        <v>274.5086291499451</v>
       </c>
       <c r="AD4" t="n">
-        <v>170389.6115298391</v>
+        <v>221796.3314337929</v>
       </c>
       <c r="AE4" t="n">
-        <v>233134.5835541534</v>
+        <v>303471.5256311292</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456663164575112e-06</v>
+        <v>3.554232724644994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>210884.5461062554</v>
+        <v>274508.6291499452</v>
       </c>
     </row>
     <row r="5">
@@ -6970,28 +6970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.2080765826568</v>
+        <v>216.6147964866105</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.0449788462335</v>
+        <v>296.3819209232093</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.4715633213344</v>
+        <v>268.0956463650242</v>
       </c>
       <c r="AD5" t="n">
-        <v>165208.0765826568</v>
+        <v>216614.7964866105</v>
       </c>
       <c r="AE5" t="n">
-        <v>226044.9788462335</v>
+        <v>296381.9209232093</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.532470706822905e-06</v>
+        <v>3.663908992566979e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>204471.5633213344</v>
+        <v>268095.6463650242</v>
       </c>
     </row>
     <row r="6">
@@ -7076,28 +7076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>165.3398838058382</v>
+        <v>216.7466037097921</v>
       </c>
       <c r="AB6" t="n">
-        <v>226.2253233039146</v>
+        <v>296.5622653808904</v>
       </c>
       <c r="AC6" t="n">
-        <v>204.6346959570895</v>
+        <v>268.2587790007794</v>
       </c>
       <c r="AD6" t="n">
-        <v>165339.8838058382</v>
+        <v>216746.603709792</v>
       </c>
       <c r="AE6" t="n">
-        <v>226225.3233039147</v>
+        <v>296562.2653808905</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.531953088595266e-06</v>
+        <v>3.663160116746283e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>204634.6959570895</v>
+        <v>268258.7790007794</v>
       </c>
     </row>
   </sheetData>
@@ -7373,28 +7373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.9294709963139</v>
+        <v>224.4295434281135</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.7685107424456</v>
+        <v>307.0744024508712</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.839726559383</v>
+        <v>277.7676524626816</v>
       </c>
       <c r="AD2" t="n">
-        <v>167929.4709963139</v>
+        <v>224429.5434281135</v>
       </c>
       <c r="AE2" t="n">
-        <v>229768.5107424456</v>
+        <v>307074.4024508712</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503712772105218e-06</v>
+        <v>3.759786947832852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>207839.726559383</v>
+        <v>277767.6524626816</v>
       </c>
     </row>
     <row r="3">
@@ -7479,28 +7479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.5187756139862</v>
+        <v>196.0187585372348</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8957439289439</v>
+        <v>268.2015131678213</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6769220522787</v>
+        <v>242.6047371743507</v>
       </c>
       <c r="AD3" t="n">
-        <v>139518.7756139862</v>
+        <v>196018.7585372348</v>
       </c>
       <c r="AE3" t="n">
-        <v>190895.7439289439</v>
+        <v>268201.5131678213</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.783857366818575e-06</v>
+        <v>4.18047577541892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172676.9220522787</v>
+        <v>242604.7371743507</v>
       </c>
     </row>
   </sheetData>
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.3513283832574</v>
+        <v>189.4152289897188</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.7713675912676</v>
+        <v>259.1662727137517</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.1826616317434</v>
+        <v>234.4318073881751</v>
       </c>
       <c r="AD2" t="n">
-        <v>142351.3283832574</v>
+        <v>189415.2289897188</v>
       </c>
       <c r="AE2" t="n">
-        <v>194771.3675912676</v>
+        <v>259166.2727137517</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.827127484669947e-06</v>
+        <v>4.336097588286705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176182.6616317434</v>
+        <v>234431.8073881751</v>
       </c>
     </row>
     <row r="3">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.5988135280781</v>
+        <v>187.4354757634971</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.427546515828</v>
+        <v>256.4574870090884</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.112356111569</v>
+        <v>231.9815443893594</v>
       </c>
       <c r="AD3" t="n">
-        <v>132598.8135280781</v>
+        <v>187435.4757634971</v>
       </c>
       <c r="AE3" t="n">
-        <v>181427.546515828</v>
+        <v>256457.4870090884</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.881561606985587e-06</v>
+        <v>4.419585746416549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>164112.356111569</v>
+        <v>231981.5443893594</v>
       </c>
     </row>
   </sheetData>
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.8925745580172</v>
+        <v>180.8168837525444</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.5659715505839</v>
+        <v>247.4016374280357</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.951254265816</v>
+        <v>223.7899723823547</v>
       </c>
       <c r="AD2" t="n">
-        <v>134892.5745580172</v>
+        <v>180816.8837525444</v>
       </c>
       <c r="AE2" t="n">
-        <v>184565.9715505839</v>
+        <v>247401.6374280357</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.937232362854066e-06</v>
+        <v>4.589367628977413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>166951.254265816</v>
+        <v>223789.9723823547</v>
       </c>
     </row>
   </sheetData>
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.1041770838467</v>
+        <v>183.9758779974067</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.1190072278968</v>
+        <v>251.7239127188442</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.7378247837494</v>
+        <v>227.6997357857613</v>
       </c>
       <c r="AD2" t="n">
-        <v>133104.1770838466</v>
+        <v>183975.8779974066</v>
       </c>
       <c r="AE2" t="n">
-        <v>182119.0072278968</v>
+        <v>251723.9127188442</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864666620022571e-06</v>
+        <v>4.668478819926497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164737.8247837494</v>
+        <v>227699.7357857613</v>
       </c>
     </row>
   </sheetData>
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.5978753681704</v>
+        <v>252.5929934966974</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.257398130967</v>
+        <v>345.6088773184152</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.8461657480307</v>
+        <v>312.6244511323547</v>
       </c>
       <c r="AD2" t="n">
-        <v>194597.8753681704</v>
+        <v>252592.9934966974</v>
       </c>
       <c r="AE2" t="n">
-        <v>266257.398130967</v>
+        <v>345608.8773184153</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.226581230768793e-06</v>
+        <v>3.289508370595629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>240846.1657480307</v>
+        <v>312624.4511323547</v>
       </c>
     </row>
     <row r="3">
@@ -14100,28 +14100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.203749282146</v>
+        <v>207.9016717714519</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.4613492245678</v>
+        <v>284.4602392920021</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.8025818600487</v>
+        <v>257.3117532965103</v>
       </c>
       <c r="AD3" t="n">
-        <v>158203.749282146</v>
+        <v>207901.6717714519</v>
       </c>
       <c r="AE3" t="n">
-        <v>216461.3492245678</v>
+        <v>284460.2392920021</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.617361119049473e-06</v>
+        <v>3.866839076431085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.25260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>195802.5818600488</v>
+        <v>257311.7532965104</v>
       </c>
     </row>
     <row r="4">
@@ -14206,28 +14206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.0065699726121</v>
+        <v>203.9162577380164</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.772630391698</v>
+        <v>279.0072199874003</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.7066109298188</v>
+        <v>252.3791625009773</v>
       </c>
       <c r="AD4" t="n">
-        <v>146006.5699726121</v>
+        <v>203916.2577380164</v>
       </c>
       <c r="AE4" t="n">
-        <v>199772.630391698</v>
+        <v>279007.2199874003</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.69461603553815e-06</v>
+        <v>3.98097400712545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>180706.6109298188</v>
+        <v>252379.1625009773</v>
       </c>
     </row>
   </sheetData>
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.8644435985507</v>
+        <v>307.0110549781863</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.8248696869044</v>
+        <v>420.0660697929873</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.6331628256688</v>
+        <v>379.9755536583756</v>
       </c>
       <c r="AD2" t="n">
-        <v>238864.4435985507</v>
+        <v>307011.0549781863</v>
       </c>
       <c r="AE2" t="n">
-        <v>326824.8696869044</v>
+        <v>420066.0697929873</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.916124174646314e-06</v>
+        <v>2.782536156518712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>295633.1628256688</v>
+        <v>379975.5536583756</v>
       </c>
     </row>
     <row r="3">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.7811337560574</v>
+        <v>235.9551203088475</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.8256991732063</v>
+        <v>322.8442052116494</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.6963692872865</v>
+        <v>292.0324073810334</v>
       </c>
       <c r="AD3" t="n">
-        <v>184781.1337560574</v>
+        <v>235955.1203088475</v>
       </c>
       <c r="AE3" t="n">
-        <v>252825.6991732063</v>
+        <v>322844.2052116494</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.346758658825442e-06</v>
+        <v>3.40789021150494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>228696.3692872865</v>
+        <v>292032.4073810334</v>
       </c>
     </row>
     <row r="4">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.511662430979</v>
+        <v>217.6003081291976</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.8286025140558</v>
+        <v>297.7303414303013</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.0849604496318</v>
+        <v>269.3153755114399</v>
       </c>
       <c r="AD4" t="n">
-        <v>166511.662430979</v>
+        <v>217600.3081291976</v>
       </c>
       <c r="AE4" t="n">
-        <v>227828.6025140558</v>
+        <v>297730.3414303013</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.514509674560933e-06</v>
+        <v>3.651493038896281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.27864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>206084.9604496318</v>
+        <v>269315.3755114399</v>
       </c>
     </row>
     <row r="5">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.5988798603279</v>
+        <v>213.6875255585465</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.4749607811096</v>
+        <v>292.3766996973551</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.242262769793</v>
+        <v>264.4726778316011</v>
       </c>
       <c r="AD5" t="n">
-        <v>162598.8798603279</v>
+        <v>213687.5255585465</v>
       </c>
       <c r="AE5" t="n">
-        <v>222474.9607811096</v>
+        <v>292376.6996973552</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.571375631952812e-06</v>
+        <v>3.734072020264835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>201242.262769793</v>
+        <v>264472.6778316011</v>
       </c>
     </row>
   </sheetData>
@@ -15118,28 +15118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.7553366774079</v>
+        <v>193.5953075849244</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.1146848615978</v>
+        <v>264.8856406597616</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.2567219555692</v>
+        <v>239.6053268846029</v>
       </c>
       <c r="AD2" t="n">
-        <v>136755.3366774079</v>
+        <v>193595.3075849244</v>
       </c>
       <c r="AE2" t="n">
-        <v>187114.6848615978</v>
+        <v>264885.6406597616</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649856410153282e-06</v>
+        <v>4.4171527598197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>169256.7219555692</v>
+        <v>239605.3268846029</v>
       </c>
     </row>
   </sheetData>
@@ -15415,28 +15415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.2864013275757</v>
+        <v>203.7988473037145</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.8919962306186</v>
+        <v>278.8465738514057</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.5282688711312</v>
+        <v>252.2338482067338</v>
       </c>
       <c r="AD2" t="n">
-        <v>148286.4013275757</v>
+        <v>203798.8473037145</v>
       </c>
       <c r="AE2" t="n">
-        <v>202891.9962306186</v>
+        <v>278846.5738514056</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.710122562389866e-06</v>
+        <v>4.124553473378904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183528.2688711312</v>
+        <v>252233.8482067338</v>
       </c>
     </row>
     <row r="3">
@@ -15521,28 +15521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.7098933727183</v>
+        <v>190.1369984942855</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.316019093533</v>
+        <v>260.1538295921225</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.7251569204555</v>
+        <v>235.3251132241193</v>
       </c>
       <c r="AD3" t="n">
-        <v>134709.8933727183</v>
+        <v>190136.9984942854</v>
       </c>
       <c r="AE3" t="n">
-        <v>184316.019093533</v>
+        <v>260153.8295921225</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.860384455436905e-06</v>
+        <v>4.353238043399651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.88802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>166725.1569204555</v>
+        <v>235325.1132241193</v>
       </c>
     </row>
   </sheetData>
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.2271215543517</v>
+        <v>231.3906696255692</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.3852340686827</v>
+        <v>316.598922417439</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.634081905014</v>
+        <v>286.3831656113909</v>
       </c>
       <c r="AD2" t="n">
-        <v>174227.1215543517</v>
+        <v>231390.6696255693</v>
       </c>
       <c r="AE2" t="n">
-        <v>238385.2340686827</v>
+        <v>316598.9224174391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.399142198478871e-06</v>
+        <v>3.581705044587004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.65885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215634.081905014</v>
+        <v>286383.1656113909</v>
       </c>
     </row>
     <row r="3">
@@ -15924,28 +15924,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.9989635941735</v>
+        <v>198.9918299562478</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.2892465416057</v>
+        <v>272.2694006459668</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.7465535384</v>
+        <v>246.2843911808993</v>
       </c>
       <c r="AD3" t="n">
-        <v>141998.9635941735</v>
+        <v>198991.8299562478</v>
       </c>
       <c r="AE3" t="n">
-        <v>194289.2465416057</v>
+        <v>272269.4006459668</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.746239502243198e-06</v>
+        <v>4.099890321242746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>175746.5535384</v>
+        <v>246284.3911808993</v>
       </c>
     </row>
     <row r="4">
@@ -16030,28 +16030,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.8870160936139</v>
+        <v>198.8798824556881</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.136075032565</v>
+        <v>272.1162291369261</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.6080005032045</v>
+        <v>246.1458381457038</v>
       </c>
       <c r="AD4" t="n">
-        <v>141887.0160936138</v>
+        <v>198879.8824556881</v>
       </c>
       <c r="AE4" t="n">
-        <v>194136.075032565</v>
+        <v>272116.2291369261</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.753333388289113e-06</v>
+        <v>4.110480859582861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>175608.0005032045</v>
+        <v>246145.8381457038</v>
       </c>
     </row>
   </sheetData>
